--- a/week_plan/2021_april_weekplan.xlsx
+++ b/week_plan/2021_april_weekplan.xlsx
@@ -135,7 +135,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7   </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7  </t>
     </r>
     <r>
       <rPr>
@@ -148,7 +154,51 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7  </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富国论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
     </r>
     <r>
       <rPr>
@@ -156,20 +206,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>富国论</t>
+      <t>解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storybuff的字间距问题</t>
     </r>
   </si>
   <si>
@@ -179,8 +225,132 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8   </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filament backend 分割编译</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filament backend 试用接入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> filament backend 试用接入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vivacut 文字新需求计划方案</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vivacut 文字新需求计划方案</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的七个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12   </t>
     </r>
     <r>
       <rPr>
@@ -193,7 +363,133 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">9   </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vivacut 文字新需求讨论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Computer Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Computer Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>慢性鼻炎/咽喉炎 医院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> filament job system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
@@ -201,97 +497,57 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>解决</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Storybuff的字间距问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>filament backend 分割编译</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>filament backend 试用接入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> filament backend 试用接入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vivacut 文字新需求计划方案</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vivacut 文字新需求计划方案</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+      <t>游泳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vulkan learning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>高效能人士的七个习惯</t>
     </r>
@@ -303,113 +559,18 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">12   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Vivacut 文字新需求讨论</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Computer Architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Computer Architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本周计划</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>慢性鼻炎/咽喉炎 医院</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> filament job system</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">21  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高效能人士的七个习惯</t>
     </r>
   </si>
   <si>
@@ -419,47 +580,8 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vulkan learning</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高效能人士的七个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">21   </t>
     </r>
     <r>
@@ -474,6 +596,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">21  </t>
     </r>
     <r>
@@ -492,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -523,6 +652,34 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -533,8 +690,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,10 +714,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,61 +762,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,30 +785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,49 +822,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,133 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +1068,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -987,45 +1155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1041,152 +1170,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,9 +1334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,9 +1343,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,15 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1572,7 +1686,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5428571428571" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1677,22 +1791,22 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -1721,22 +1835,22 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1748,13 +1862,13 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1766,7 +1880,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2"/>
@@ -1776,7 +1890,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2"/>
@@ -1786,7 +1900,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
@@ -1796,7 +1910,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2"/>
@@ -1806,7 +1920,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
@@ -1816,7 +1930,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
@@ -1826,7 +1940,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
@@ -1836,407 +1950,407 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="17">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="H29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="18" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17">
+      <c r="C30" s="12">
         <v>8</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="D30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="17">
+      <c r="E30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="12">
         <v>8</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="G30" s="12">
+        <v>8</v>
+      </c>
+      <c r="H30" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="17">
-        <v>8</v>
-      </c>
-      <c r="G30" s="17">
-        <v>8</v>
-      </c>
-      <c r="H30" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14">
+        <v>10</v>
+      </c>
+      <c r="B32" s="15">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10</v>
+      </c>
+      <c r="D32" s="14">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="15">
+        <v>10</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+      <c r="H32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+      <c r="H33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="12">
+        <v>12</v>
+      </c>
+      <c r="C34" s="12">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13">
+        <v>12</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="19">
-        <v>10</v>
-      </c>
-      <c r="B32" s="20">
-        <v>10</v>
-      </c>
-      <c r="C32" s="17">
-        <v>10</v>
-      </c>
-      <c r="D32" s="19">
-        <v>10</v>
-      </c>
-      <c r="E32" s="18">
-        <v>10</v>
-      </c>
-      <c r="F32" s="20">
-        <v>10</v>
-      </c>
-      <c r="G32" s="17">
-        <v>10</v>
-      </c>
-      <c r="H32" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17">
-        <v>11</v>
-      </c>
-      <c r="B33" s="17">
-        <v>11</v>
-      </c>
-      <c r="C33" s="17">
-        <v>11</v>
-      </c>
-      <c r="D33" s="17">
-        <v>11</v>
-      </c>
-      <c r="E33" s="17">
-        <v>11</v>
-      </c>
-      <c r="F33" s="17">
-        <v>11</v>
-      </c>
-      <c r="G33" s="17">
-        <v>11</v>
-      </c>
-      <c r="H33" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17">
+      <c r="F34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="17">
+      <c r="G34" s="12">
         <v>12</v>
       </c>
-      <c r="C34" s="17">
+      <c r="H34" s="12">
         <v>12</v>
       </c>
-      <c r="D34" s="18">
-        <v>12</v>
-      </c>
-      <c r="E34" s="17" t="s">
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
+        <v>13</v>
+      </c>
+      <c r="D35" s="12">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+      <c r="H35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="12">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="17">
-        <v>12</v>
-      </c>
-      <c r="G34" s="17">
-        <v>12</v>
-      </c>
-      <c r="H34" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17">
-        <v>13</v>
-      </c>
-      <c r="B35" s="17">
-        <v>13</v>
-      </c>
-      <c r="C35" s="17">
-        <v>13</v>
-      </c>
-      <c r="D35" s="17">
-        <v>13</v>
-      </c>
-      <c r="E35" s="17">
-        <v>13</v>
-      </c>
-      <c r="F35" s="17">
-        <v>13</v>
-      </c>
-      <c r="G35" s="17">
-        <v>13</v>
-      </c>
-      <c r="H35" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17">
+      <c r="C36" s="12">
         <v>14</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="D36" s="13">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="17">
-        <v>14</v>
-      </c>
-      <c r="D36" s="18">
-        <v>14</v>
-      </c>
-      <c r="E36" s="17">
-        <v>14</v>
-      </c>
-      <c r="F36" s="17">
-        <v>14</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="H36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="17" t="s">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17" t="s">
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="17">
+      <c r="D37" s="12">
         <v>15</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12">
+        <v>15</v>
+      </c>
+      <c r="H37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="17">
-        <v>15</v>
-      </c>
-      <c r="E37" s="17">
-        <v>15</v>
-      </c>
-      <c r="F37" s="18">
-        <v>15</v>
-      </c>
-      <c r="G37" s="17">
-        <v>15</v>
-      </c>
-      <c r="H37" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17" t="s">
+      <c r="B38" s="12">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12">
+        <v>16</v>
+      </c>
+      <c r="G38" s="12">
+        <v>16</v>
+      </c>
+      <c r="H38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="12">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12">
+        <v>17</v>
+      </c>
+      <c r="F39" s="12">
+        <v>17</v>
+      </c>
+      <c r="G39" s="12">
+        <v>17</v>
+      </c>
+      <c r="H39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="12">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12">
+        <v>18</v>
+      </c>
+      <c r="H40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="17">
-        <v>16</v>
-      </c>
-      <c r="C38" s="17">
-        <v>16</v>
-      </c>
-      <c r="D38" s="17">
-        <v>16</v>
-      </c>
-      <c r="E38" s="17">
-        <v>16</v>
-      </c>
-      <c r="F38" s="17">
-        <v>16</v>
-      </c>
-      <c r="G38" s="17">
-        <v>16</v>
-      </c>
-      <c r="H38" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17">
-        <v>17</v>
-      </c>
-      <c r="B39" s="17">
-        <v>17</v>
-      </c>
-      <c r="C39" s="17">
-        <v>17</v>
-      </c>
-      <c r="D39" s="17">
-        <v>17</v>
-      </c>
-      <c r="E39" s="17">
-        <v>17</v>
-      </c>
-      <c r="F39" s="17">
-        <v>17</v>
-      </c>
-      <c r="G39" s="17">
-        <v>17</v>
-      </c>
-      <c r="H39" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17">
-        <v>18</v>
-      </c>
-      <c r="B40" s="17">
-        <v>18</v>
-      </c>
-      <c r="C40" s="17">
-        <v>18</v>
-      </c>
-      <c r="D40" s="17">
-        <v>18</v>
-      </c>
-      <c r="E40" s="17">
-        <v>18</v>
-      </c>
-      <c r="F40" s="17">
-        <v>18</v>
-      </c>
-      <c r="G40" s="17">
-        <v>18</v>
-      </c>
-      <c r="H40" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="18" t="s">
+      <c r="B41" s="12">
+        <v>19</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="17">
+      <c r="D41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="12">
         <v>19</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="G41" s="13">
+        <v>19</v>
+      </c>
+      <c r="H41" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12">
+        <v>20</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="H42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="17">
-        <v>19</v>
-      </c>
-      <c r="G41" s="18">
-        <v>19</v>
-      </c>
-      <c r="H41" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="18">
-        <v>20</v>
-      </c>
-      <c r="B42" s="17">
-        <v>20</v>
-      </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
-      <c r="D42" s="17">
-        <v>20</v>
-      </c>
-      <c r="E42" s="17">
-        <v>20</v>
-      </c>
-      <c r="F42" s="18">
-        <v>20</v>
-      </c>
-      <c r="G42" s="18" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="C43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="17" t="s">
+      <c r="E43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="G43" s="12">
         <v>21</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="12">
         <v>21</v>
       </c>
     </row>
